--- a/TestData/Team7_Scraping_Spatulas_ScrapedRecipes.xlsx
+++ b/TestData/Team7_Scraping_Spatulas_ScrapedRecipes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0019cff6cfb10f79/Desktop/Recipes/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2AC00EA0EF9218CDA488420C4241A5744F3DF770" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26B4FF89-9C9C-4950-A867-AE019921E74B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_88D10EA09A02DAEA54484F32AA448DEA8F3CCC18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52F7827C-451D-4D9B-ADCE-A6C3A6930F24}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HYPOTHYROIDISM" sheetId="1" r:id="rId1"/>
-    <sheet name="TOADD_RECIPES" sheetId="2" r:id="rId2"/>
+    <sheet name="PCOS" sheetId="1" r:id="rId1"/>
+    <sheet name="ToAddPCOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -97,7 +97,7 @@
 If you find asparagus difficult to find, use small drumsticks instead.</t>
   </si>
   <si>
-    <t>HYPOTHYROIDISM</t>
+    <t>PCOS</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/a-checkerboard-of-roses--flower-arrangements-37154r</t>
@@ -457,17 +457,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="188.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="71.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
